--- a/automationdemo.maven/testdata/CalcInput.xlsx
+++ b/automationdemo.maven/testdata/CalcInput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a95d59aa5495e4d/SeleniumProjects/SeleniumTrial/datatable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\git\UIAutoTest\automationdemo.maven\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_F25DC773A252ABDACC10481871D94A445BDE58E8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EB3289A1-23D4-429B-8FCB-C7C291C872CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ADF32A-E29D-4030-BB21-16500E917219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="3390" windowWidth="15390" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>276622</t>
-  </si>
-  <si>
-    <t>2.191</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>2.66</t>
   </si>
   <si>
-    <t>2.02</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -64,9 +46,6 @@
   </si>
   <si>
     <t>breakevenrate</t>
-  </si>
-  <si>
-    <t>536800</t>
   </si>
   <si>
     <t>798100</t>
@@ -388,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -403,58 +382,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
